--- a/medicine/Enfance/Judith_Vanistendael/Judith_Vanistendael.xlsx
+++ b/medicine/Enfance/Judith_Vanistendael/Judith_Vanistendael.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Judith Vanistendael est une auteure de bande dessinée belge néerlandophone née le 21 août 1974 à Louvain (province du Brabant flamand).
 </t>
@@ -511,20 +523,20 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Judith Irene[1] Vanistendael naît le 21 août 1974 à Louvain[2]. Elle est la fille du poète-journaliste flamand Geert van Istendael[3]. Après ses études secondaires, elle intègre une école d'art à Gand[2], passe une année à l'Académie des beaux-arts de Berlin[4] ; revenue à Gand, elle reprend des études artistiques pendant quatre ans avant de poursuivre ses études à Séville[2]. Elle apprend la bande dessinée à l'Institut des arts graphiques Sint-Lukas Bruxelles en 2000[2] auprès de ses professeurs, Nix et Johan De Moor avant de publier dans des revues comme Ink, Demo, Zone 5300[3], Bruxxxel Noord[2].
-Sa carrière commence par l'illustration de contes flamands écrits par son père : Vlaamse Sprookjes en 1995, puis Het Koeienboek de Bibi Dumon Tak (2000)[2]. Elle exerce un temps comme illustratrice de livres pour la jeunesse[2].
-Elle écrit et dessine La Jeune fille et le nègre, un récit d'inspiration autobiographique en deux volumes sur l'amour entre un jeune Togolais et une jeune Belge[3]. La narration dépeint « l'absurdité des procédures de régularisation des sans-papiers en Belgique », qui multiplient les obstacles face à ce réfugié politique[3]. Le livre, qui mêle drame, humour, amour et légèreté, d'après Le Soir, remporte aussitôt plusieurs prix culturels et fait partie de la sélection pour les Essentiels d'Angoulême en 2009[3] et pour le prix Tournesol[5]. L'article fait écho à un roman de Geert van Istendael, Bericht uit de burcht (Nouvelle de la citadelle), qui exprime son désarroi face à la relation de sa fille avec un homme sans-papier[3].
-À Saint-Josse-ten-Noode, elle signe la fresque murale Couleur Café de la façade de l’Impérial, inaugurée en mai 2009 place Saint-Josse (Projet d’Atrium, réalisation ASBL Art Mural)[6],[7],[8],[9].
-En 2012 est publié David, les femmes et la mort, dont le héros est atteint de cancer et entreprend de changer de vie[10],[11], sans réussir à protéger les femmes qui lui sont proches des effets de son agonie : « La maladie, c'est le drame du malade, mais aussi de l'entourage »[12]. L'ouvrage, qui s'inspire du décès du beau-père de Vanistendael, a requis deux années de travail[12]. Elle opte pour l'aquarelle[13]. L'œuvre fait partie des cinq finalistes pour le grand prix de la critique[14]. Elle reçoit trois nominations aux prix Eisner[15].
-Sur un scénario de Mark Bellido, Judith Vanistendael dessine et met en couleur Salto - L'histoire du marchand de bonbons qui disparut sous la pluie (2016), qui met en scène « un vendeur de bonbons devenu garde du corps » « dans l'Espagne des années 1990 »[16]. Le personnage principal, Miquel, est un écrivain raté qui vend des bonbons pour faire vivre sa famille et qui accepte de devenir garde du corps pour un homme politique menacé par l'ETA, ce qui finit par détruire sa vie[17],[18]. L'artiste emploie plusieurs procédés et formats, notamment le crayon de couleur[18].
-Judith Vanistendael s'associe à Michael De Cock pour une série jeunesse, Rosie et Moussa, qui paraît « en néerlandais et en feuilleton dans Brussel deze week » avant de faire l'objet de quatre volumes[19]. Le récit narre la grande amitié entre deux enfants bruxellois[19]. La série est traduite dans de nombreuses langues et reçoit plusieurs prix[19]. La réalisatrice Dorothée Van Den Berghe s'en inspire pour créer le film Rosie et Moussa, sorti en salles en octobre 2018[20].
-En 2019, s'inspirant du personnage de Pénélope dans l'Odyssée, elle livre Les Deux Vies de Pénélope : une mère médecin s'engage dans l'humanitaire et prend ses distances avec sa famille, notamment avec sa fille ; la créatrice opte pour un traitement avec « des taches d'aquarelle »[21]. L'artiste souhaitait depuis longtemps décrire la vie d'une femme qui, en raison d'un métier intense, ne peut s'investir auprès de sa fille[22]. Ayant lu l'œuvre d'Homère, Vanistendael est frappée par le rôle de Pénélope, qui se borne à tenir le foyer, tandis que son époux multiplie les aventures[22]. Elle en retient néanmoins qu'Ulysse a quitté sa famille car un intérêt supérieur le commande[21]. Dans l'album de la bédéaste, l'époux de Pénélope est chargé de veiller sur le foyer tandis que Pénélope, hantée par ses missions dans des pays en guerre, « refuse de se laisser réduire à sa dimension de mère » et retourne à ses activités humanitaires[21]. Pendant la réalisation de l'œuvre, l'auteure s'est rendue dans un camp de réfugiés et en a tiré un reportage graphique : « Moria, l'enfer de Lesbos »[23],[24]. Elle reçoit pour cette œuvre le prix « Bulles d'Humanité » (décerné par le journal L'Humanité)[25].
-Lors de la remise des Prix Atomium en 2021, elle remporte avec Zidrou le prix Willy Vandersteen pour La Baleine-bibliothèque (Le Lombard)[26].
-En 2022, elle est récipiendaire du prix Adhémar de bronze, ce prix est doté d'un montant de 10000 euros et fait de l'autrice la deuxième femme après Erika Raven à qui cet honneur échoit[27],[28].
-Vie familiale
-Judith Vanistendael a une fille[21].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Judith Irene Vanistendael naît le 21 août 1974 à Louvain. Elle est la fille du poète-journaliste flamand Geert van Istendael. Après ses études secondaires, elle intègre une école d'art à Gand, passe une année à l'Académie des beaux-arts de Berlin ; revenue à Gand, elle reprend des études artistiques pendant quatre ans avant de poursuivre ses études à Séville. Elle apprend la bande dessinée à l'Institut des arts graphiques Sint-Lukas Bruxelles en 2000 auprès de ses professeurs, Nix et Johan De Moor avant de publier dans des revues comme Ink, Demo, Zone 5300, Bruxxxel Noord.
+Sa carrière commence par l'illustration de contes flamands écrits par son père : Vlaamse Sprookjes en 1995, puis Het Koeienboek de Bibi Dumon Tak (2000). Elle exerce un temps comme illustratrice de livres pour la jeunesse.
+Elle écrit et dessine La Jeune fille et le nègre, un récit d'inspiration autobiographique en deux volumes sur l'amour entre un jeune Togolais et une jeune Belge. La narration dépeint « l'absurdité des procédures de régularisation des sans-papiers en Belgique », qui multiplient les obstacles face à ce réfugié politique. Le livre, qui mêle drame, humour, amour et légèreté, d'après Le Soir, remporte aussitôt plusieurs prix culturels et fait partie de la sélection pour les Essentiels d'Angoulême en 2009 et pour le prix Tournesol. L'article fait écho à un roman de Geert van Istendael, Bericht uit de burcht (Nouvelle de la citadelle), qui exprime son désarroi face à la relation de sa fille avec un homme sans-papier.
+À Saint-Josse-ten-Noode, elle signe la fresque murale Couleur Café de la façade de l’Impérial, inaugurée en mai 2009 place Saint-Josse (Projet d’Atrium, réalisation ASBL Art Mural).
+En 2012 est publié David, les femmes et la mort, dont le héros est atteint de cancer et entreprend de changer de vie sans réussir à protéger les femmes qui lui sont proches des effets de son agonie : « La maladie, c'est le drame du malade, mais aussi de l'entourage ». L'ouvrage, qui s'inspire du décès du beau-père de Vanistendael, a requis deux années de travail. Elle opte pour l'aquarelle. L'œuvre fait partie des cinq finalistes pour le grand prix de la critique. Elle reçoit trois nominations aux prix Eisner.
+Sur un scénario de Mark Bellido, Judith Vanistendael dessine et met en couleur Salto - L'histoire du marchand de bonbons qui disparut sous la pluie (2016), qui met en scène « un vendeur de bonbons devenu garde du corps » « dans l'Espagne des années 1990 ». Le personnage principal, Miquel, est un écrivain raté qui vend des bonbons pour faire vivre sa famille et qui accepte de devenir garde du corps pour un homme politique menacé par l'ETA, ce qui finit par détruire sa vie,. L'artiste emploie plusieurs procédés et formats, notamment le crayon de couleur.
+Judith Vanistendael s'associe à Michael De Cock pour une série jeunesse, Rosie et Moussa, qui paraît « en néerlandais et en feuilleton dans Brussel deze week » avant de faire l'objet de quatre volumes. Le récit narre la grande amitié entre deux enfants bruxellois. La série est traduite dans de nombreuses langues et reçoit plusieurs prix. La réalisatrice Dorothée Van Den Berghe s'en inspire pour créer le film Rosie et Moussa, sorti en salles en octobre 2018.
+En 2019, s'inspirant du personnage de Pénélope dans l'Odyssée, elle livre Les Deux Vies de Pénélope : une mère médecin s'engage dans l'humanitaire et prend ses distances avec sa famille, notamment avec sa fille ; la créatrice opte pour un traitement avec « des taches d'aquarelle ». L'artiste souhaitait depuis longtemps décrire la vie d'une femme qui, en raison d'un métier intense, ne peut s'investir auprès de sa fille. Ayant lu l'œuvre d'Homère, Vanistendael est frappée par le rôle de Pénélope, qui se borne à tenir le foyer, tandis que son époux multiplie les aventures. Elle en retient néanmoins qu'Ulysse a quitté sa famille car un intérêt supérieur le commande. Dans l'album de la bédéaste, l'époux de Pénélope est chargé de veiller sur le foyer tandis que Pénélope, hantée par ses missions dans des pays en guerre, « refuse de se laisser réduire à sa dimension de mère » et retourne à ses activités humanitaires. Pendant la réalisation de l'œuvre, l'auteure s'est rendue dans un camp de réfugiés et en a tiré un reportage graphique : « Moria, l'enfer de Lesbos »,. Elle reçoit pour cette œuvre le prix « Bulles d'Humanité » (décerné par le journal L'Humanité).
+Lors de la remise des Prix Atomium en 2021, elle remporte avec Zidrou le prix Willy Vandersteen pour La Baleine-bibliothèque (Le Lombard).
+En 2022, elle est récipiendaire du prix Adhémar de bronze, ce prix est doté d'un montant de 10000 euros et fait de l'autrice la deuxième femme après Erika Raven à qui cet honneur échoit,.
 </t>
         </is>
       </c>
@@ -550,13 +562,55 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie familiale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Judith Vanistendael a une fille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Judith_Vanistendael</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Judith_Vanistendael</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans graphiques
-La Jeune fille et le nègre (scénario et dessin), éd. Actes Sud - L'An 2 (traduction du néerlandais De maagd en de neger)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans graphiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Jeune fille et le nègre (scénario et dessin), éd. Actes Sud - L'An 2 (traduction du néerlandais De maagd en de neger)
 Papa et Sophie, avril 2008  (ISBN 978-2-7427-7330-5)
 Babette et Sophie, septembre 2009  (ISBN 978-2-7427-7959-8)
 David, les femmes et la mort (scénario, dessin et couleurs), trad. Hélène Robbe, Le Lombard, janvier 2012  (ISBN 978-2-8036-3024-0)
@@ -564,47 +618,118 @@
 Rosie et Moussa, Bayard Jeunesse
 La Rencontre, janvier 2018
 Une lettre de Papa, mai 2018
-Les Deux Vies de Pénélope[29] (scénario, dessin et couleurs), Le Lombard, septembre 2019  (ISBN 978-2-8036-7225-7). Finaliste au grand prix de la critique 2020[30].
+Les Deux Vies de Pénélope (scénario, dessin et couleurs), Le Lombard, septembre 2019  (ISBN 978-2-8036-7225-7). Finaliste au grand prix de la critique 2020.
 Un petit tour, 2021  (ISBN 978-2-36624-550-9)
-Atan des cyclades. Itinéraire d'un jeune sculpteur, Futuropolis, coll. « Musée du Louvre », 2022  (ISBN 978-2-75483-285-4)
-Catalogues d'exposition
-Ceci n'est pas la BD Flamande[31],[32] - La Flandre invitée d'honneur au Festival international de la bande dessinée d'Angoulême, Fonds flamand des lettres, Berchem, 2009Scénario : Benoît Mouchart, Gert Meesters - Dessin : collectif - Couleurs : quadrichromie,Artistes : Serge Baeken, Randall Casaer, Constantijn Van Cauwenberge, Luc Cromheecke, Reinhart Croon, Steven Dhondt, Kim Duchateau, Brecht Evens, Stijn Gisquière, Inge Heremans, Jeroen Janssen, Philip Paquet, Gerolf Van de Perre, Pieter De Poortere, Olivier Schrauwen, Kristof Spaey, Simon Spruyt, Judith Vanistendael, Marnix Verduyn, Maarten Vande Wiele. (OCLC 901248335)
-Expositions collectives
-Ceci n'est pas la BD flamande[33], Festival d'Angoulême 2009.
-Ceci n'est pas la BD flamande[34], Louvain du 13 février au 15 avril 2009.</t>
+Atan des cyclades. Itinéraire d'un jeune sculpteur, Futuropolis, coll. « Musée du Louvre », 2022  (ISBN 978-2-75483-285-4)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Judith_Vanistendael</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Judith_Vanistendael</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Catalogues d'exposition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ceci n'est pas la BD Flamande, - La Flandre invitée d'honneur au Festival international de la bande dessinée d'Angoulême, Fonds flamand des lettres, Berchem, 2009Scénario : Benoît Mouchart, Gert Meesters - Dessin : collectif - Couleurs : quadrichromie,Artistes : Serge Baeken, Randall Casaer, Constantijn Van Cauwenberge, Luc Cromheecke, Reinhart Croon, Steven Dhondt, Kim Duchateau, Brecht Evens, Stijn Gisquière, Inge Heremans, Jeroen Janssen, Philip Paquet, Gerolf Van de Perre, Pieter De Poortere, Olivier Schrauwen, Kristof Spaey, Simon Spruyt, Judith Vanistendael, Marnix Verduyn, Maarten Vande Wiele. (OCLC 901248335)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Judith_Vanistendael</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Judith_Vanistendael</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Expositions collectives</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ceci n'est pas la BD flamande, Festival d'Angoulême 2009.
+Ceci n'est pas la BD flamande, Louvain du 13 février au 15 avril 2009.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Judith_Vanistendael</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Judith_Vanistendael</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2007 :  prix Saint-Michel[35] de la Meilleure bd d'auteur néerlandophone pour Papa en Sofie ;
-2010 :  prix du roman graphique décerné par le Festival de bande dessinée de Middelkerke (nl) pour De maagd en de neger[36] ;
-2021 :  prix Willy Vandersteen partagé avec Zidrou pour La Baleine-bibliothèque[26] ;
-2022 :  Adhémar de bronze pour l'ensemble de ses romans graphiques[37] ,[35].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2007 :  prix Saint-Michel de la Meilleure bd d'auteur néerlandophone pour Papa en Sofie ;
+2010 :  prix du roman graphique décerné par le Festival de bande dessinée de Middelkerke (nl) pour De maagd en de neger ;
+2021 :  prix Willy Vandersteen partagé avec Zidrou pour La Baleine-bibliothèque ;
+2022 :  Adhémar de bronze pour l'ensemble de ses romans graphiques ,.</t>
         </is>
       </c>
     </row>
